--- a/natmiOut/OldD2/LR-pairs_lrc2p/Calr-Lrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Calr-Lrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>65.60758290876539</v>
+        <v>65.652523</v>
       </c>
       <c r="H2">
-        <v>65.60758290876539</v>
+        <v>131.305046</v>
       </c>
       <c r="I2">
-        <v>0.08152006478629474</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J2">
-        <v>0.08152006478629474</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N2">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O2">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P2">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q2">
-        <v>120.015682969029</v>
+        <v>132.555463953058</v>
       </c>
       <c r="R2">
-        <v>120.015682969029</v>
+        <v>530.221855812232</v>
       </c>
       <c r="S2">
-        <v>0.000302968227345408</v>
+        <v>0.0003108524338566271</v>
       </c>
       <c r="T2">
-        <v>0.000302968227345408</v>
+        <v>0.000149469031075632</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>65.60758290876539</v>
+        <v>65.652523</v>
       </c>
       <c r="H3">
-        <v>65.60758290876539</v>
+        <v>131.305046</v>
       </c>
       <c r="I3">
-        <v>0.08152006478629474</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J3">
-        <v>0.08152006478629474</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N3">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P3">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q3">
-        <v>8628.156285852077</v>
+        <v>9171.317164189115</v>
       </c>
       <c r="R3">
-        <v>8628.156285852077</v>
+        <v>55027.90298513469</v>
       </c>
       <c r="S3">
-        <v>0.02178096354172581</v>
+        <v>0.02150742170212499</v>
       </c>
       <c r="T3">
-        <v>0.02178096354172581</v>
+        <v>0.01551231291420902</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.60758290876539</v>
+        <v>65.652523</v>
       </c>
       <c r="H4">
-        <v>65.60758290876539</v>
+        <v>131.305046</v>
       </c>
       <c r="I4">
-        <v>0.08152006478629474</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J4">
-        <v>0.08152006478629474</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N4">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O4">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P4">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q4">
-        <v>12086.6592377261</v>
+        <v>12234.66631651247</v>
       </c>
       <c r="R4">
-        <v>12086.6592377261</v>
+        <v>73407.99789907481</v>
       </c>
       <c r="S4">
-        <v>0.03051162675737015</v>
+        <v>0.02869120357994763</v>
       </c>
       <c r="T4">
-        <v>0.03051162675737015</v>
+        <v>0.02069364398864453</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.60758290876539</v>
+        <v>65.652523</v>
       </c>
       <c r="H5">
-        <v>65.60758290876539</v>
+        <v>131.305046</v>
       </c>
       <c r="I5">
-        <v>0.08152006478629474</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J5">
-        <v>0.08152006478629474</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N5">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O5">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P5">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q5">
-        <v>9166.97290207667</v>
+        <v>9428.043652151251</v>
       </c>
       <c r="R5">
-        <v>9166.97290207667</v>
+        <v>56568.26191290751</v>
       </c>
       <c r="S5">
-        <v>0.02314115506872768</v>
+        <v>0.02210946443381318</v>
       </c>
       <c r="T5">
-        <v>0.02314115506872768</v>
+        <v>0.01594653861411008</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.60758290876539</v>
+        <v>65.652523</v>
       </c>
       <c r="H6">
-        <v>65.60758290876539</v>
+        <v>131.305046</v>
       </c>
       <c r="I6">
-        <v>0.08152006478629474</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J6">
-        <v>0.08152006478629474</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N6">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O6">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P6">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q6">
-        <v>325.3307888801953</v>
+        <v>410.5721897571195</v>
       </c>
       <c r="R6">
-        <v>325.3307888801953</v>
+        <v>2463.433138542717</v>
       </c>
       <c r="S6">
-        <v>0.0008212667708881962</v>
+        <v>0.0009628223586848321</v>
       </c>
       <c r="T6">
-        <v>0.0008212667708881962</v>
+        <v>0.0006944394319120194</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.60758290876539</v>
+        <v>65.652523</v>
       </c>
       <c r="H7">
-        <v>65.60758290876539</v>
+        <v>131.305046</v>
       </c>
       <c r="I7">
-        <v>0.08152006478629474</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J7">
-        <v>0.08152006478629474</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N7">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O7">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P7">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q7">
-        <v>1965.644899013895</v>
+        <v>1967.167850892713</v>
       </c>
       <c r="R7">
-        <v>1965.644899013895</v>
+        <v>7868.671403570854</v>
       </c>
       <c r="S7">
-        <v>0.004962084420237513</v>
+        <v>0.004613155097635668</v>
       </c>
       <c r="T7">
-        <v>0.004962084420237513</v>
+        <v>0.002218170898939274</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>260.306395333893</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H8">
-        <v>260.306395333893</v>
+        <v>830.932037</v>
       </c>
       <c r="I8">
-        <v>0.3234411827275337</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J8">
-        <v>0.3234411827275337</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N8">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O8">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P8">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q8">
-        <v>476.1774238908799</v>
+        <v>559.2300018589007</v>
       </c>
       <c r="R8">
-        <v>476.1774238908799</v>
+        <v>3355.380011153404</v>
       </c>
       <c r="S8">
-        <v>0.001202064817273522</v>
+        <v>0.001311435998029072</v>
       </c>
       <c r="T8">
-        <v>0.001202064817273522</v>
+        <v>0.0009458783972406605</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>260.306395333893</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H9">
-        <v>260.306395333893</v>
+        <v>830.932037</v>
       </c>
       <c r="I9">
-        <v>0.3234411827275337</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J9">
-        <v>0.3234411827275337</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N9">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P9">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q9">
-        <v>34233.30294412594</v>
+        <v>38692.29952372496</v>
       </c>
       <c r="R9">
-        <v>34233.30294412594</v>
+        <v>348230.6957135246</v>
       </c>
       <c r="S9">
-        <v>0.08641873172389185</v>
+        <v>0.09073632364727614</v>
       </c>
       <c r="T9">
-        <v>0.08641873172389185</v>
+        <v>0.09816589812081639</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>260.306395333893</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H10">
-        <v>260.306395333893</v>
+        <v>830.932037</v>
       </c>
       <c r="I10">
-        <v>0.3234411827275337</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J10">
-        <v>0.3234411827275337</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N10">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O10">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P10">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q10">
-        <v>47955.35147479474</v>
+        <v>51616.07272069342</v>
       </c>
       <c r="R10">
-        <v>47955.35147479474</v>
+        <v>464544.6544862408</v>
       </c>
       <c r="S10">
-        <v>0.1210587438959446</v>
+        <v>0.121043534176986</v>
       </c>
       <c r="T10">
-        <v>0.1210587438959446</v>
+        <v>0.1309546912038491</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>260.306395333893</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H11">
-        <v>260.306395333893</v>
+        <v>830.932037</v>
       </c>
       <c r="I11">
-        <v>0.3234411827275337</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J11">
-        <v>0.3234411827275337</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N11">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O11">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P11">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q11">
-        <v>36371.12611786597</v>
+        <v>39775.38693527924</v>
       </c>
       <c r="R11">
-        <v>36371.12611786597</v>
+        <v>357978.4824175132</v>
       </c>
       <c r="S11">
-        <v>0.09181546389507897</v>
+        <v>0.09327624428065232</v>
       </c>
       <c r="T11">
-        <v>0.09181546389507897</v>
+        <v>0.1009137898152189</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>260.306395333893</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H12">
-        <v>260.306395333893</v>
+        <v>830.932037</v>
       </c>
       <c r="I12">
-        <v>0.3234411827275337</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J12">
-        <v>0.3234411827275337</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N12">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O12">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P12">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q12">
-        <v>1290.791112702631</v>
+        <v>1732.137473581601</v>
       </c>
       <c r="R12">
-        <v>1290.791112702631</v>
+        <v>15589.23726223441</v>
       </c>
       <c r="S12">
-        <v>0.003258479938739683</v>
+        <v>0.004061991361048593</v>
       </c>
       <c r="T12">
-        <v>0.003258479938739683</v>
+        <v>0.004394590987247947</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>260.306395333893</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H13">
-        <v>260.306395333893</v>
+        <v>830.932037</v>
       </c>
       <c r="I13">
-        <v>0.3234411827275337</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J13">
-        <v>0.3234411827275337</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N13">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O13">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P13">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q13">
-        <v>7798.945114016698</v>
+        <v>8299.162087359002</v>
       </c>
       <c r="R13">
-        <v>7798.945114016698</v>
+        <v>49794.97252415401</v>
       </c>
       <c r="S13">
-        <v>0.01968769845660519</v>
+        <v>0.01946215310098258</v>
       </c>
       <c r="T13">
-        <v>0.01968769845660519</v>
+        <v>0.0140371548513812</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>208.32228131281</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H14">
-        <v>208.32228131281</v>
+        <v>657.680252</v>
       </c>
       <c r="I14">
-        <v>0.2588488268599219</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J14">
-        <v>0.2588488268599219</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N14">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O14">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P14">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q14">
-        <v>381.0830968150593</v>
+        <v>442.6288940265306</v>
       </c>
       <c r="R14">
-        <v>381.0830968150593</v>
+        <v>2655.773364159184</v>
       </c>
       <c r="S14">
-        <v>0.0009620081930721619</v>
+        <v>0.001037997717333929</v>
       </c>
       <c r="T14">
-        <v>0.0009620081930721619</v>
+        <v>0.0007486599564804044</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>208.32228131281</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H15">
-        <v>208.32228131281</v>
+        <v>657.680252</v>
       </c>
       <c r="I15">
-        <v>0.2588488268599219</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J15">
-        <v>0.2588488268599219</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N15">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P15">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q15">
-        <v>27396.79045167236</v>
+        <v>30624.84074280904</v>
       </c>
       <c r="R15">
-        <v>27396.79045167236</v>
+        <v>275623.5666852813</v>
       </c>
       <c r="S15">
-        <v>0.06916060328747825</v>
+        <v>0.07181753205394117</v>
       </c>
       <c r="T15">
-        <v>0.06916060328747825</v>
+        <v>0.07769801829641676</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>208.32228131281</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H16">
-        <v>208.32228131281</v>
+        <v>657.680252</v>
       </c>
       <c r="I16">
-        <v>0.2588488268599219</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J16">
-        <v>0.2588488268599219</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N16">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O16">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P16">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q16">
-        <v>38378.49703067247</v>
+        <v>40853.96904030549</v>
       </c>
       <c r="R16">
-        <v>38378.49703067247</v>
+        <v>367685.7213627494</v>
       </c>
       <c r="S16">
-        <v>0.09688288168609101</v>
+        <v>0.09580559963472771</v>
       </c>
       <c r="T16">
-        <v>0.09688288168609101</v>
+        <v>0.1036502511354364</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>208.32228131281</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H17">
-        <v>208.32228131281</v>
+        <v>657.680252</v>
       </c>
       <c r="I17">
-        <v>0.2588488268599219</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J17">
-        <v>0.2588488268599219</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N17">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O17">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P17">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q17">
-        <v>29107.68272547016</v>
+        <v>31482.10122868563</v>
       </c>
       <c r="R17">
-        <v>29107.68272547016</v>
+        <v>283338.9110581707</v>
       </c>
       <c r="S17">
-        <v>0.07347958882793666</v>
+        <v>0.07382787173015568</v>
       </c>
       <c r="T17">
-        <v>0.07347958882793666</v>
+        <v>0.0798729664529088</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>208.32228131281</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H18">
-        <v>208.32228131281</v>
+        <v>657.680252</v>
       </c>
       <c r="I18">
-        <v>0.2588488268599219</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J18">
-        <v>0.2588488268599219</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N18">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O18">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P18">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q18">
-        <v>1033.015531376384</v>
+        <v>1370.981692120977</v>
       </c>
       <c r="R18">
-        <v>1033.015531376384</v>
+        <v>12338.83522908879</v>
       </c>
       <c r="S18">
-        <v>0.002607749892504818</v>
+        <v>0.003215054159665602</v>
       </c>
       <c r="T18">
-        <v>0.002607749892504818</v>
+        <v>0.003478305781017995</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>208.32228131281</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H19">
-        <v>208.32228131281</v>
+        <v>657.680252</v>
       </c>
       <c r="I19">
-        <v>0.2588488268599219</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J19">
-        <v>0.2588488268599219</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N19">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O19">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P19">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q19">
-        <v>6241.468005046011</v>
+        <v>6568.762269305925</v>
       </c>
       <c r="R19">
-        <v>6241.468005046011</v>
+        <v>39412.57361583554</v>
       </c>
       <c r="S19">
-        <v>0.01575599497283908</v>
+        <v>0.01540423667154478</v>
       </c>
       <c r="T19">
-        <v>0.01575599497283908</v>
+        <v>0.01111036658708035</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>135.566467160813</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H20">
-        <v>135.566467160813</v>
+        <v>408.642563</v>
       </c>
       <c r="I20">
-        <v>0.1684467967851636</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J20">
-        <v>0.1684467967851636</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N20">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O20">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P20">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q20">
-        <v>247.9911836811423</v>
+        <v>275.0227107516326</v>
       </c>
       <c r="R20">
-        <v>247.9911836811423</v>
+        <v>1650.136264509796</v>
       </c>
       <c r="S20">
-        <v>0.0006260302608664397</v>
+        <v>0.0006449487365776742</v>
       </c>
       <c r="T20">
-        <v>0.0006260302608664397</v>
+        <v>0.0004651718255204976</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>135.566467160813</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H21">
-        <v>135.566467160813</v>
+        <v>408.642563</v>
       </c>
       <c r="I21">
-        <v>0.1684467967851636</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J21">
-        <v>0.1684467967851636</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N21">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P21">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q21">
-        <v>17828.55904645823</v>
+        <v>19028.41597349392</v>
       </c>
       <c r="R21">
-        <v>17828.55904645823</v>
+        <v>171255.7437614453</v>
       </c>
       <c r="S21">
-        <v>0.04500650912283094</v>
+        <v>0.0446230524295219</v>
       </c>
       <c r="T21">
-        <v>0.04500650912283094</v>
+        <v>0.04827682941690126</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>135.566467160813</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H22">
-        <v>135.566467160813</v>
+        <v>408.642563</v>
       </c>
       <c r="I22">
-        <v>0.1684467967851636</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J22">
-        <v>0.1684467967851636</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N22">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O22">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P22">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q22">
-        <v>24974.94374870832</v>
+        <v>25384.17500994554</v>
       </c>
       <c r="R22">
-        <v>24974.94374870832</v>
+        <v>228457.5750895099</v>
       </c>
       <c r="S22">
-        <v>0.063046880611012</v>
+        <v>0.05952778065850606</v>
       </c>
       <c r="T22">
-        <v>0.063046880611012</v>
+        <v>0.06440197063964506</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>135.566467160813</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H23">
-        <v>135.566467160813</v>
+        <v>408.642563</v>
       </c>
       <c r="I23">
-        <v>0.1684467967851636</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J23">
-        <v>0.1684467967851636</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N23">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O23">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P23">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q23">
-        <v>18941.92829236826</v>
+        <v>19561.06557189974</v>
       </c>
       <c r="R23">
-        <v>18941.92829236826</v>
+        <v>176049.5901470977</v>
       </c>
       <c r="S23">
-        <v>0.04781710435896604</v>
+        <v>0.04587215540211486</v>
       </c>
       <c r="T23">
-        <v>0.04781710435896604</v>
+        <v>0.04962821010129656</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>135.566467160813</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H24">
-        <v>135.566467160813</v>
+        <v>408.642563</v>
       </c>
       <c r="I24">
-        <v>0.1684467967851636</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J24">
-        <v>0.1684467967851636</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N24">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O24">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P24">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q24">
-        <v>672.2385393843848</v>
+        <v>851.8447540285778</v>
       </c>
       <c r="R24">
-        <v>672.2385393843848</v>
+        <v>7666.602786257199</v>
       </c>
       <c r="S24">
-        <v>0.001697002538269196</v>
+        <v>0.001997639381742548</v>
       </c>
       <c r="T24">
-        <v>0.001697002538269196</v>
+        <v>0.002161207950110246</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>135.566467160813</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H25">
-        <v>135.566467160813</v>
+        <v>408.642563</v>
       </c>
       <c r="I25">
-        <v>0.1684467967851636</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J25">
-        <v>0.1684467967851636</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N25">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O25">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P25">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q25">
-        <v>4061.657552947051</v>
+        <v>4081.429906560231</v>
       </c>
       <c r="R25">
-        <v>4061.657552947051</v>
+        <v>24488.57943936139</v>
       </c>
       <c r="S25">
-        <v>0.01025326989321896</v>
+        <v>0.009571257058998098</v>
       </c>
       <c r="T25">
-        <v>0.01025326989321896</v>
+        <v>0.006903306985738834</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>61.7092671774153</v>
+        <v>66.466661</v>
       </c>
       <c r="H26">
-        <v>61.7092671774153</v>
+        <v>199.399983</v>
       </c>
       <c r="I26">
-        <v>0.07667625044521445</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J26">
-        <v>0.07667625044521445</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N26">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O26">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P26">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q26">
-        <v>112.8845099523748</v>
+        <v>134.199246025406</v>
       </c>
       <c r="R26">
-        <v>112.8845099523748</v>
+        <v>805.195476152436</v>
       </c>
       <c r="S26">
-        <v>0.000284966256317116</v>
+        <v>0.0003147072252223019</v>
       </c>
       <c r="T26">
-        <v>0.000284966256317116</v>
+        <v>0.0002269838301226253</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>61.7092671774153</v>
+        <v>66.466661</v>
       </c>
       <c r="H27">
-        <v>61.7092671774153</v>
+        <v>199.399983</v>
       </c>
       <c r="I27">
-        <v>0.07667625044521445</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J27">
-        <v>0.07667625044521445</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N27">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P27">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q27">
-        <v>8115.482660480786</v>
+        <v>9285.048022840481</v>
       </c>
       <c r="R27">
-        <v>8115.482660480786</v>
+        <v>83565.43220556434</v>
       </c>
       <c r="S27">
-        <v>0.02048676751964787</v>
+        <v>0.02177412903475445</v>
       </c>
       <c r="T27">
-        <v>0.02048676751964787</v>
+        <v>0.02355701494810763</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>61.7092671774153</v>
+        <v>66.466661</v>
       </c>
       <c r="H28">
-        <v>61.7092671774153</v>
+        <v>199.399983</v>
       </c>
       <c r="I28">
-        <v>0.07667625044521445</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J28">
-        <v>0.07667625044521445</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N28">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O28">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P28">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q28">
-        <v>11368.48594499228</v>
+        <v>12386.38488436694</v>
       </c>
       <c r="R28">
-        <v>11368.48594499228</v>
+        <v>111477.4639593025</v>
       </c>
       <c r="S28">
-        <v>0.0286986662838416</v>
+        <v>0.02904699491945443</v>
       </c>
       <c r="T28">
-        <v>0.0286986662838416</v>
+        <v>0.03142538984787966</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>61.7092671774153</v>
+        <v>66.466661</v>
       </c>
       <c r="H29">
-        <v>61.7092671774153</v>
+        <v>199.399983</v>
       </c>
       <c r="I29">
-        <v>0.07667625044521445</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J29">
-        <v>0.07667625044521445</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N29">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O29">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P29">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q29">
-        <v>8622.283506603588</v>
+        <v>9544.958101926093</v>
       </c>
       <c r="R29">
-        <v>8622.283506603588</v>
+        <v>85904.62291733484</v>
       </c>
       <c r="S29">
-        <v>0.02176613826660768</v>
+        <v>0.02238363752469676</v>
       </c>
       <c r="T29">
-        <v>0.02176613826660768</v>
+        <v>0.0242164305594348</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>61.7092671774153</v>
+        <v>66.466661</v>
       </c>
       <c r="H30">
-        <v>61.7092671774153</v>
+        <v>199.399983</v>
       </c>
       <c r="I30">
-        <v>0.07667625044521445</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J30">
-        <v>0.07667625044521445</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N30">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O30">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P30">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q30">
-        <v>306.0000640469419</v>
+        <v>415.6635770511688</v>
       </c>
       <c r="R30">
-        <v>306.0000640469419</v>
+        <v>3740.972193460519</v>
       </c>
       <c r="S30">
-        <v>0.0007724681864769908</v>
+        <v>0.0009747620410250667</v>
       </c>
       <c r="T30">
-        <v>0.0007724681864769908</v>
+        <v>0.001054576462490149</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>61.7092671774153</v>
+        <v>66.466661</v>
       </c>
       <c r="H31">
-        <v>61.7092671774153</v>
+        <v>199.399983</v>
       </c>
       <c r="I31">
-        <v>0.07667625044521445</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J31">
-        <v>0.07667625044521445</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N31">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O31">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P31">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q31">
-        <v>1848.848881048567</v>
+        <v>1991.562131974494</v>
       </c>
       <c r="R31">
-        <v>1848.848881048567</v>
+        <v>11949.37279184697</v>
       </c>
       <c r="S31">
-        <v>0.004667243932323201</v>
+        <v>0.004670361503319101</v>
       </c>
       <c r="T31">
-        <v>0.004667243932323201</v>
+        <v>0.003368516694625628</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>73.29088599551829</v>
+        <v>75.063408</v>
       </c>
       <c r="H32">
-        <v>73.29088599551829</v>
+        <v>150.126816</v>
       </c>
       <c r="I32">
-        <v>0.09106687839587146</v>
+        <v>0.08940367994566026</v>
       </c>
       <c r="J32">
-        <v>0.09106687839587146</v>
+        <v>0.06312924427414179</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N32">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O32">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P32">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q32">
-        <v>134.0707178679218</v>
+        <v>151.556473668768</v>
       </c>
       <c r="R32">
-        <v>134.0707178679218</v>
+        <v>606.2258946750719</v>
       </c>
       <c r="S32">
-        <v>0.0003384488320734939</v>
+        <v>0.0003554112165708089</v>
       </c>
       <c r="T32">
-        <v>0.0003384488320734939</v>
+        <v>0.000170894496514549</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>73.29088599551829</v>
+        <v>75.063408</v>
       </c>
       <c r="H33">
-        <v>73.29088599551829</v>
+        <v>150.126816</v>
       </c>
       <c r="I33">
-        <v>0.09106687839587146</v>
+        <v>0.08940367994566026</v>
       </c>
       <c r="J33">
-        <v>0.09106687839587146</v>
+        <v>0.06312924427414179</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N33">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P33">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q33">
-        <v>9638.599543855669</v>
+        <v>10485.9690189352</v>
       </c>
       <c r="R33">
-        <v>9638.599543855669</v>
+        <v>62915.81411361119</v>
       </c>
       <c r="S33">
-        <v>0.02433173186747426</v>
+        <v>0.02459037819848389</v>
       </c>
       <c r="T33">
-        <v>0.02433173186747426</v>
+        <v>0.01773590747309042</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>73.29088599551829</v>
+        <v>75.063408</v>
       </c>
       <c r="H34">
-        <v>73.29088599551829</v>
+        <v>150.126816</v>
       </c>
       <c r="I34">
-        <v>0.09106687839587146</v>
+        <v>0.08940367994566026</v>
       </c>
       <c r="J34">
-        <v>0.09106687839587146</v>
+        <v>0.06312924427414179</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N34">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O34">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P34">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q34">
-        <v>13502.12772646606</v>
+        <v>13988.4304135613</v>
       </c>
       <c r="R34">
-        <v>13502.12772646606</v>
+        <v>83930.58248136778</v>
       </c>
       <c r="S34">
-        <v>0.03408484292618946</v>
+        <v>0.03280391098347689</v>
       </c>
       <c r="T34">
-        <v>0.03408484292618946</v>
+        <v>0.02365995045957902</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>73.29088599551829</v>
+        <v>75.063408</v>
       </c>
       <c r="H35">
-        <v>73.29088599551829</v>
+        <v>150.126816</v>
       </c>
       <c r="I35">
-        <v>0.09106687839587146</v>
+        <v>0.08940367994566026</v>
       </c>
       <c r="J35">
-        <v>0.09106687839587146</v>
+        <v>0.06312924427414179</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N35">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O35">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P35">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q35">
-        <v>10240.51696622319</v>
+        <v>10779.49566847933</v>
       </c>
       <c r="R35">
-        <v>10240.51696622319</v>
+        <v>64676.97401087597</v>
       </c>
       <c r="S35">
-        <v>0.02585121540455554</v>
+        <v>0.02527872004944589</v>
       </c>
       <c r="T35">
-        <v>0.02585121540455554</v>
+        <v>0.01823237675387889</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>73.29088599551829</v>
+        <v>75.063408</v>
       </c>
       <c r="H36">
-        <v>73.29088599551829</v>
+        <v>150.126816</v>
       </c>
       <c r="I36">
-        <v>0.09106687839587146</v>
+        <v>0.08940367994566026</v>
       </c>
       <c r="J36">
-        <v>0.09106687839587146</v>
+        <v>0.06312924427414179</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N36">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O36">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P36">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q36">
-        <v>363.4302728665959</v>
+        <v>469.4251855818561</v>
       </c>
       <c r="R36">
-        <v>363.4302728665959</v>
+        <v>2816.551113491136</v>
       </c>
       <c r="S36">
-        <v>0.0009174453105638261</v>
+        <v>0.001100837016446144</v>
       </c>
       <c r="T36">
-        <v>0.0009174453105638261</v>
+        <v>0.0007939830493475494</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>73.29088599551829</v>
+        <v>75.063408</v>
       </c>
       <c r="H37">
-        <v>73.29088599551829</v>
+        <v>150.126816</v>
       </c>
       <c r="I37">
-        <v>0.09106687839587146</v>
+        <v>0.08940367994566026</v>
       </c>
       <c r="J37">
-        <v>0.09106687839587146</v>
+        <v>0.06312924427414179</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N37">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O37">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P37">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q37">
-        <v>2195.841544743939</v>
+        <v>2249.149251979896</v>
       </c>
       <c r="R37">
-        <v>2195.841544743939</v>
+        <v>8996.597007919583</v>
       </c>
       <c r="S37">
-        <v>0.005543194055014894</v>
+        <v>0.005274422481236646</v>
       </c>
       <c r="T37">
-        <v>0.005543194055014894</v>
+        <v>0.002536132041731367</v>
       </c>
     </row>
   </sheetData>
